--- a/medicine/Handicap/Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères/Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères.xlsx
+++ b/medicine/Handicap/Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères/Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le braille, est un système d’écriture tactile à points saillants, à l’usage des personnes aveugles ou fortement malvoyantes. Lorsqu’il a inventé le système, le Français Louis Braille a prévu les lettres diacritées propres au français. En utilisant les mêmes principes de codification à l’aide de la matrice à six points saillants, il est possible de représenter les lettres diacritées et ligatures propres à diverses langues étrangères.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,6 +580,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -571,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -590,6 +608,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -597,7 +617,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -615,7 +635,9 @@
           <t>Espéranto</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En espéranto, on ajoute le point 6 (le point inférieur droit) à une lettre pour indiquer un circonflexe. Dans le cas du j (⠚), cela conduirait à un conflit entre le ĵ et le w (⠺). C’est pourquoi on ajoute un point 3 au w pour en faire ⠾, sachant que le w n’est pas utilisé en espéranto hormis pour y écrire des mots dans une autre langue.
 </t>
@@ -628,7 +650,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -646,7 +668,9 @@
           <t>Hongrois</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que ⠵ n’ait pas été réaffectée,
 une autre combinaison de points est utilisée pour z,
@@ -664,7 +688,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -683,6 +707,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -690,7 +716,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -709,6 +735,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -716,7 +744,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -734,7 +762,9 @@
           <t>Islandais</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">á é í ó ú en islandais sont codés comme â ê î ô û en français.
 </t>
@@ -747,7 +777,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -766,6 +796,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -773,7 +805,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -792,6 +824,8 @@
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -799,7 +833,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -818,6 +852,8 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -825,7 +861,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -844,6 +880,8 @@
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -851,7 +889,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -870,6 +908,8 @@
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -877,7 +917,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -896,6 +936,8 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -903,7 +945,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -922,6 +964,8 @@
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -929,7 +973,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -948,6 +992,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -955,7 +1001,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -974,6 +1020,8 @@
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -981,7 +1029,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1000,6 +1048,8 @@
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1007,7 +1057,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1026,6 +1076,8 @@
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1033,7 +1085,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1052,6 +1104,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1059,7 +1113,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1078,6 +1132,8 @@
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1085,7 +1141,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1104,6 +1160,8 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1111,7 +1169,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1130,6 +1188,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1137,7 +1197,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1156,6 +1216,8 @@
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1163,7 +1225,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Braille_%E2%80%93_lettres_diacrit%C3%A9es_et_ligatures_propres_%C3%A0_diverses_langues_%C3%A9trang%C3%A8res</t>
+          <t>Braille_–_lettres_diacritées_et_ligatures_propres_à_diverses_langues_étrangères</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1182,6 +1244,8 @@
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
